--- a/Assets/StreamingAssets/Excel/描述/技能描述.xlsx
+++ b/Assets/StreamingAssets/Excel/描述/技能描述.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\描述\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF10E247-E929-4274-A91F-89BA73E778C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAC4EFB-B202-49BF-BE70-E3440AD992DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="2475" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="1950" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>技能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挥砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗3行动点，造成3点物理伤害，每点力量额外造成1点物理伤害，上限为5。攻击范围15。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗3行动点，造成1点物理伤害，1点真实伤害，每点敏捷额外造成1点物理伤害，上限为5。攻击范围15。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,18 +193,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风墙术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲刺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗5行动点，创造一段风墙，持续2轮次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗3行动点，朝着一个目标冲刺，路径只能是近似平行x轴的直线。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,14 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>烈火燎原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3行动力，火，距离8。对范围内敌人造成2伤害，若遇到木元素则燃烧之并扩展伤害范围，伤害值翻倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗2行动点，距离20，若在水中，则十回合内拥有buff4_0鱼形:闪避＋100%，离开水时，受到99点真实伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗3行动点，距离10。生成一朵疗愈花，每点花瓣可以回1血，茎秆被破坏所有花瓣会掉落并死亡。存活时30s会重新长出1点花瓣。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗5行动点，如果站在水上，传送到有水的一个任意位置，范围30。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小石柱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,38 +321,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雷云术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷击术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗1行动点，范围内所有雷云将发射雷击到目标，每</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒云术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨云术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗3行动点，创造一朵雨云，范围50，云内的角色潮湿将叠满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗3行动点，创造一朵毒雨云，范围50，云内的角色沾毒将叠满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗5行动点，创造一朵雷云，存在5回合，范围50。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,67 +341,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>火星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，向目标方向吹风，范围10x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，向目标方向发射火焰粒子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汲水术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴火术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，汲取角色范围5内的所有水像素，获得对应层数的御水。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，将角色的燃烧层数转换为御火。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小旋风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，在目标位置创建一个半径为10的小旋风，范围30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗5行动点，创造一段风墙，持续2轮次，风力与小吹风相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗5行动点，如果站在水上，传送到视线可见的有水的一个任意位置，范围30。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小开矿炸药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，创造一朵雨云，范围50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，创造一朵毒雨云，范围50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗2行动点，若在水中，则十回合内拥有buff4_0鱼形:闪避＋100%，离开水时，受到99点真实伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_2_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，发射一个半径为5的小旋风，范围30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，造成3点切割伤害。攻击范围15。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，造成3点电属性伤害。攻击范围15。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，角色化为水，化水状态下只能使用塑性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用塑性可以在范围20内有水的地方重新化形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫刻纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3行动点，距离10。放置一个守卫刻纹，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗3行动点，向目标方向吹风，范围10x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗3行动点，向目标方向发射火焰粒子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汲水术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴火术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗3行动点，汲取角色范围5内的所有水像素，获得对应层数的御水。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗3行动点，将角色的燃烧层数转换为御火。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小旋风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗3行动点，在目标位置创建一个半径为10的小旋风，范围30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗3行动点，发射一个半径为5的小旋风</t>
+    <t>雷鸣波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小毒云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小风墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雷云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1行动点，范围内所有雷云将发射雷击到目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -887,362 +943,414 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>57</v>
+    </row>
+    <row r="54" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
